--- a/stats/dic22/ALT.xlsx
+++ b/stats/dic22/ALT.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,27 +370,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n.x</t>
+          <t>tratamiento</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>tratamiento</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>media.y</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>desvio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>n.y</t>
         </is>
       </c>
     </row>
@@ -403,22 +388,13 @@
       <c r="B2">
         <v>2.4212</v>
       </c>
-      <c r="C2">
-        <v>175</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>1.756533333333333</v>
-      </c>
-      <c r="F2">
-        <v>0.6803427064341898</v>
-      </c>
-      <c r="G2">
-        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -430,22 +406,13 @@
       <c r="B3">
         <v>2.4212</v>
       </c>
-      <c r="C3">
-        <v>175</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>2.9197</v>
-      </c>
-      <c r="F3">
-        <v>0.7828844039186053</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -457,22 +424,13 @@
       <c r="B4">
         <v>3.177619047619048</v>
       </c>
-      <c r="C4">
-        <v>147</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>1.928611111111111</v>
-      </c>
-      <c r="F4">
-        <v>0.9064841624519497</v>
-      </c>
-      <c r="G4">
-        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -484,22 +442,13 @@
       <c r="B5">
         <v>3.177619047619048</v>
       </c>
-      <c r="C5">
-        <v>147</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>4.376666666666667</v>
-      </c>
-      <c r="F5">
-        <v>0.7262609413667755</v>
-      </c>
-      <c r="G5">
-        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -511,22 +460,13 @@
       <c r="B6">
         <v>3.945333333333334</v>
       </c>
-      <c r="C6">
-        <v>150</v>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>2.748</v>
-      </c>
-      <c r="F6">
-        <v>1.257871542060846</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -538,22 +478,13 @@
       <c r="B7">
         <v>3.945333333333334</v>
       </c>
-      <c r="C7">
-        <v>150</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E7">
+      <c r="D7">
         <v>4.544</v>
-      </c>
-      <c r="F7">
-        <v>1.133718294691045</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -565,22 +496,13 @@
       <c r="B8">
         <v>3.056494252873563</v>
       </c>
-      <c r="C8">
-        <v>174</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E8">
+      <c r="D8">
         <v>2.277567567567568</v>
-      </c>
-      <c r="F8">
-        <v>1.23314478347675</v>
-      </c>
-      <c r="G8">
-        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -592,22 +514,13 @@
       <c r="B9">
         <v>3.056494252873563</v>
       </c>
-      <c r="C9">
-        <v>174</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E9">
+      <c r="D9">
         <v>3.6329</v>
-      </c>
-      <c r="F9">
-        <v>1.154494331565193</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -619,22 +532,13 @@
       <c r="B10">
         <v>2.954666666666667</v>
       </c>
-      <c r="C10">
-        <v>225</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E10">
+      <c r="D10">
         <v>2.051</v>
-      </c>
-      <c r="F10">
-        <v>1.134290593946345</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -646,22 +550,13 @@
       <c r="B11">
         <v>2.954666666666667</v>
       </c>
-      <c r="C11">
-        <v>225</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E11">
+      <c r="D11">
         <v>3.6776</v>
-      </c>
-      <c r="F11">
-        <v>0.5736996516667764</v>
-      </c>
-      <c r="G11">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
